--- a/src/assets/template/ProDon- UMB - example file.xlsx
+++ b/src/assets/template/ProDon- UMB - example file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Muminniyoz\BMI-2022\dasturlar\umb-front\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7B728-DB65-428D-B96E-12DBEBF5DB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677ACDFD-C7E9-4A75-A2DA-A22A29E93C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shablon" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
-  <si>
-    <t>tjf</t>
-  </si>
-  <si>
-    <t>&lt;soha nomi&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>&lt;1-alomat tur&gt;</t>
   </si>
   <si>
-    <t>ton</t>
-  </si>
-  <si>
     <t>&lt;obyekt nomi&gt;</t>
   </si>
   <si>
@@ -61,12 +52,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>&lt;sinflar soni&gt;</t>
-  </si>
-  <si>
-    <t>sinf</t>
-  </si>
-  <si>
     <t>Talabalar harakteri</t>
   </si>
   <si>
@@ -76,30 +61,15 @@
     <t>Sarvar Qodirov</t>
   </si>
   <si>
-    <t>Jins</t>
-  </si>
-  <si>
     <t>Bilim ko'rsatgich %</t>
   </si>
   <si>
-    <t>ERKAK</t>
-  </si>
-  <si>
-    <t>Soch rangi</t>
-  </si>
-  <si>
-    <t>QORA</t>
-  </si>
-  <si>
     <t>Bo'yi</t>
   </si>
   <si>
     <t>Yashnar Karimov</t>
   </si>
   <si>
-    <t>JIGARRANG</t>
-  </si>
-  <si>
     <t>Ahad Qayum</t>
   </si>
   <si>
@@ -115,12 +85,37 @@
     <t>Sobit Turdiyev</t>
   </si>
   <si>
-    <t>&lt;soha nom&gt; bu o'rganilayotgan sohadir. Masalan: talabalar xarakteri
+    <t>KOD</t>
+  </si>
+  <si>
+    <t>TJF</t>
+  </si>
+  <si>
+    <t>SINF</t>
+  </si>
+  <si>
+    <t>KOD*</t>
+  </si>
+  <si>
+    <t>&lt;sinflar soni&gt;*</t>
+  </si>
+  <si>
+    <t>&lt;soha nomi&gt;*</t>
+  </si>
+  <si>
+    <t>KOD - obyektlar identifikatsiya qiluvchi maxsus kodlar
+&lt;soha nom&gt; bu o'rganilayotgan sohadir. Masalan: talabalar xarakteri
 &lt;obyekt nomi&gt; - real tajraba obyekti: Masalan: Sardor Jo'rayev
 &lt;alomat tur&gt; - obyekt xususiyatining tur: Masalan: 0-NOMINAL, 1-NUMERIC
 &lt;alomat nom&gt; berilgan obyekt alamoatining nomi: Masalan: Soch rangi.
 &lt;sinf soni&gt; - ajratilgan sinflar soni
 2-varaqda namuna ko'rsatilgan</t>
+  </si>
+  <si>
+    <t>Vazn</t>
+  </si>
+  <si>
+    <t>yosh</t>
   </si>
 </sst>
 </file>
@@ -176,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,12 +274,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +306,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -606,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,59 +638,59 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -690,14 +701,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -708,16 +719,14 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -728,14 +737,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -746,14 +755,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -764,14 +773,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -782,14 +791,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -800,18 +806,47 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J4:L9"/>
+    <mergeCell ref="B11:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -819,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3585ABB-FB59-44E1-9385-07DF58D8FF8C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,48 +872,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
       </c>
       <c r="D1" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="5">
         <v>1</v>
       </c>
-      <c r="G1" s="3">
-        <v>3</v>
+      <c r="G1" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -886,16 +921,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>178</v>
@@ -909,16 +944,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>0.96</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>174</v>
@@ -932,16 +967,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+      <c r="D5" s="1">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>145</v>
@@ -955,16 +990,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
         <v>24</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>176</v>
@@ -978,16 +1013,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>0.59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>156</v>
@@ -1001,22 +1036,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>0.78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>166</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1024,50 +1059,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>0.71</v>
+      </c>
+      <c r="D9" s="1">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>170</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/template/ProDon- UMB - example file.xlsx
+++ b/src/assets/template/ProDon- UMB - example file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Muminniyoz\BMI-2022\dasturlar\umb-front\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677ACDFD-C7E9-4A75-A2DA-A22A29E93C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF59B8-7D55-4D80-B0E1-FB32BEE430A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="shablon" sheetId="1" r:id="rId1"/>
     <sheet name="namuna" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -857,7 +857,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +927,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>70</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="E3" s="1">
         <v>19</v>
@@ -973,7 +973,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="E5" s="1">
         <v>17</v>
@@ -1019,7 +1019,7 @@
         <v>0.59</v>
       </c>
       <c r="D7" s="1">
-        <v>80</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E7" s="1">
         <v>21</v>
